--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/MODELE/2024/TIMES-PL_Elektroenergetyka_2024/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_6278B6CE36033B22187657E2AA9B6F1F15E438AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CFFC724-AB4F-4CC0-B87D-EBE5F6417DB1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6978930-6A83-47C1-8BC6-14E0B2556F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Year</t>
   </si>
@@ -205,6 +205,12 @@
   <si>
     <t>MPLN/kt</t>
   </si>
+  <si>
+    <t>Bazowe</t>
+  </si>
+  <si>
+    <t>149 EURO</t>
+  </si>
 </sst>
 </file>
 
@@ -214,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +386,15 @@
       <u/>
       <sz val="14"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -682,7 +697,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -816,6 +831,7 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="5" xr:uid="{3F6BEF4B-9D7F-4FDE-A2A3-02FF5535AE14}"/>
@@ -2309,9 +2325,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S14"/>
+  <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2623,6 +2641,73 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="2:19">
+      <c r="J15" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15">
+        <v>2030</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="I16">
+        <v>2020</v>
+      </c>
+      <c r="J16">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="I17">
+        <v>2025</v>
+      </c>
+      <c r="J17">
+        <v>0.39563999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10">
+      <c r="I18">
+        <v>2030</v>
+      </c>
+      <c r="J18">
+        <v>0.51029999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10">
+      <c r="I19">
+        <v>2035</v>
+      </c>
+      <c r="J19">
+        <v>0.57923999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="I20">
+        <v>2040</v>
+      </c>
+      <c r="J20">
+        <v>0.66149999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21">
+        <v>2045</v>
+      </c>
+      <c r="J21">
+        <v>0.69709500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="I22">
+        <v>2050</v>
+      </c>
+      <c r="J22">
+        <v>0.75600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,6 +2716,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -2873,41 +2978,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2930,9 +3004,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6978930-6A83-47C1-8BC6-14E0B2556F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B004D-DF56-4114-945A-E57EC4CBB3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
     <t>Bazowe</t>
   </si>
   <si>
-    <t>149 EURO</t>
+    <t>Wzrost (o ok. 25% od 2030r.)</t>
   </si>
 </sst>
 </file>
@@ -804,6 +804,7 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -831,7 +832,6 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="5" xr:uid="{3F6BEF4B-9D7F-4FDE-A2A3-02FF5535AE14}"/>
@@ -1429,9 +1429,9 @@
       <c r="A6" s="24"/>
       <c r="B6" s="29"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="J6" s="35"/>
       <c r="K6" s="33"/>
       <c r="L6" s="24"/>
@@ -1452,9 +1452,9 @@
       <c r="A8" s="24"/>
       <c r="B8" s="29"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
       <c r="J8" s="35"/>
       <c r="K8" s="33"/>
       <c r="L8" s="24"/>
@@ -1503,15 +1503,15 @@
       <c r="A14" s="24"/>
       <c r="B14" s="29"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="J14" s="35"/>
       <c r="K14" s="33"/>
       <c r="L14" s="24"/>
@@ -1522,9 +1522,9 @@
       <c r="C15" s="34"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="J15" s="35"/>
       <c r="K15" s="33"/>
       <c r="L15" s="24"/>
@@ -1549,16 +1549,16 @@
       <c r="A18" s="24"/>
       <c r="B18" s="29"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="62" t="s">
+      <c r="E18" s="59"/>
+      <c r="F18" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="35"/>
       <c r="K18" s="33"/>
       <c r="L18" s="24"/>
@@ -1569,10 +1569,10 @@
       <c r="C19" s="34"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="35"/>
       <c r="K19" s="33"/>
       <c r="L19" s="24"/>
@@ -1583,10 +1583,10 @@
       <c r="C20" s="34"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="35"/>
       <c r="K20" s="33"/>
       <c r="L20" s="24"/>
@@ -1606,10 +1606,10 @@
       <c r="A22" s="24"/>
       <c r="B22" s="29"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="41">
         <v>45078</v>
       </c>
@@ -1687,10 +1687,10 @@
       <c r="A28" s="24"/>
       <c r="B28" s="29"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="58"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="25" t="s">
         <v>23</v>
       </c>
@@ -1729,10 +1729,10 @@
       <c r="A32" s="24"/>
       <c r="B32" s="29"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="58"/>
+      <c r="E32" s="59"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
@@ -1903,11 +1903,11 @@
       <c r="A4" s="24"/>
       <c r="B4" s="29"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
       <c r="G4" s="35"/>
       <c r="H4" s="33"/>
       <c r="I4" s="24"/>
@@ -1927,11 +1927,11 @@
       <c r="A6" s="24"/>
       <c r="B6" s="29"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="35"/>
       <c r="H6" s="33"/>
       <c r="I6" s="24"/>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2501,7 +2501,7 @@
         <v>2030</v>
       </c>
       <c r="D9" s="13">
-        <v>0.51029999999999998</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
@@ -2515,7 +2515,7 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.57923999999999998</v>
+        <v>0.71825759999999994</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -2529,7 +2529,7 @@
         <v>2040</v>
       </c>
       <c r="D11" s="13">
-        <v>0.66149999999999998</v>
+        <v>0.82025999999999999</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
@@ -2583,7 +2583,7 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.69709500000000002</v>
+        <v>0.86439779999999999</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -2597,7 +2597,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="13">
-        <v>0.75600000000000001</v>
+        <v>0.93744000000000005</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
@@ -2642,13 +2642,10 @@
       </c>
     </row>
     <row r="15" spans="2:19">
-      <c r="J15" s="67" t="s">
+      <c r="J15" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="M15">
-        <v>2030</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" s="58" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2659,53 +2656,133 @@
       <c r="J16">
         <v>0.10625</v>
       </c>
-    </row>
-    <row r="17" spans="9:10">
+      <c r="L16">
+        <v>2020</v>
+      </c>
+      <c r="M16">
+        <v>0.106</v>
+      </c>
+      <c r="O16">
+        <v>2020</v>
+      </c>
+      <c r="R16">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18">
       <c r="I17">
         <v>2025</v>
       </c>
       <c r="J17">
         <v>0.39563999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="9:10">
+      <c r="L17">
+        <v>2025</v>
+      </c>
+      <c r="M17">
+        <v>0.39563999999999999</v>
+      </c>
+      <c r="O17">
+        <v>2025</v>
+      </c>
+      <c r="P17">
+        <v>71.03</v>
+      </c>
+      <c r="Q17">
+        <f>P17*$L$4</f>
+        <v>319.63499999999999</v>
+      </c>
+      <c r="R17">
+        <f>Q17/1000</f>
+        <v>0.319635</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18">
       <c r="I18">
         <v>2030</v>
       </c>
       <c r="J18">
         <v>0.51029999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="9:10">
+      <c r="L18">
+        <v>2030</v>
+      </c>
+      <c r="M18">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="O18">
+        <v>2030</v>
+      </c>
+      <c r="P18">
+        <v>149</v>
+      </c>
+      <c r="Q18">
+        <f>P18*$L$4</f>
+        <v>670.5</v>
+      </c>
+      <c r="R18">
+        <f>Q18/1000</f>
+        <v>0.67049999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18">
       <c r="I19">
         <v>2035</v>
       </c>
       <c r="J19">
         <v>0.57923999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="9:10">
+      <c r="L19">
+        <v>2035</v>
+      </c>
+      <c r="M19">
+        <f>J19*1.24</f>
+        <v>0.71825759999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18">
       <c r="I20">
         <v>2040</v>
       </c>
       <c r="J20">
         <v>0.66149999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="9:10">
+      <c r="L20">
+        <v>2040</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20:M22" si="2">J20*1.24</f>
+        <v>0.82025999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="9:18">
       <c r="I21">
         <v>2045</v>
       </c>
       <c r="J21">
         <v>0.69709500000000002</v>
       </c>
-    </row>
-    <row r="22" spans="9:10">
+      <c r="L21">
+        <v>2045</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0.86439779999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18">
       <c r="I22">
         <v>2050</v>
       </c>
       <c r="J22">
         <v>0.75600000000000001</v>
+      </c>
+      <c r="L22">
+        <v>2050</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0.93744000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2716,26 +2793,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -2978,10 +3035,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3004,20 +3092,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B004D-DF56-4114-945A-E57EC4CBB3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98BE0B-1794-46A0-A69A-EF46EF7EBBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2501,7 +2501,7 @@
         <v>2030</v>
       </c>
       <c r="D9" s="13">
-        <v>0.67049999999999998</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
@@ -2515,7 +2515,7 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.71825759999999994</v>
+        <v>0.57923999999999998</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -2529,7 +2529,7 @@
         <v>2040</v>
       </c>
       <c r="D11" s="13">
-        <v>0.82025999999999999</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
@@ -2583,7 +2583,7 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.86439779999999999</v>
+        <v>0.69709500000000002</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -2597,7 +2597,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="13">
-        <v>0.93744000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
@@ -2793,6 +2793,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3035,41 +3055,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3092,9 +3081,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE98BE0B-1794-46A0-A69A-EF46EF7EBBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821093F7-1B80-4443-BF72-70746182B571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -211,6 +211,9 @@
   <si>
     <t>Wzrost (o ok. 25% od 2030r.)</t>
   </si>
+  <si>
+    <t>Nowe Bazowy</t>
+  </si>
 </sst>
 </file>
 
@@ -220,12 +223,20 @@
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,148 +701,150 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="14" fontId="19" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="6" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="19" fillId="9" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="6" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="20" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="5" xr:uid="{3F6BEF4B-9D7F-4FDE-A2A3-02FF5535AE14}"/>
@@ -2325,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S22"/>
+  <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2342,8 +2355,8 @@
     <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="12.75" customHeight="1"/>
-    <row r="2" spans="2:19" ht="18">
+    <row r="1" spans="2:21" ht="12.75" customHeight="1"/>
+    <row r="2" spans="2:21" ht="18">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2352,8 +2365,8 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:19" ht="12.75" customHeight="1"/>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1">
+    <row r="3" spans="2:21" ht="12.75" customHeight="1"/>
+    <row r="4" spans="2:21" ht="15.75" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2368,7 +2381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="15.75" customHeight="1">
+    <row r="5" spans="2:21" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2382,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="31.65" customHeight="1" thickBot="1">
+    <row r="6" spans="2:21" ht="31.65" customHeight="1" thickBot="1">
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
@@ -2399,7 +2412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
+    <row r="7" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2459,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15.75" customHeight="1" thickBot="1">
+    <row r="8" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
@@ -2493,7 +2506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15.75" customHeight="1">
+    <row r="9" spans="2:21" ht="15.75" customHeight="1">
       <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
@@ -2507,7 +2520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15.75" customHeight="1">
+    <row r="10" spans="2:21" ht="15.75" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2515,13 +2528,13 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.57923999999999998</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15.75" customHeight="1">
+    <row r="11" spans="2:21" ht="15.75" customHeight="1">
       <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
@@ -2575,7 +2588,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:21">
       <c r="B12" s="10" t="s">
         <v>5</v>
       </c>
@@ -2583,13 +2596,13 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.69709500000000002</v>
+        <v>0.70879999999999999</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:21">
       <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1">
+    <row r="14" spans="2:21" ht="15" thickBot="1">
       <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
@@ -2641,15 +2654,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
-      <c r="J15" s="58" t="s">
+    <row r="15" spans="2:21">
+      <c r="J15" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="L15" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:21">
       <c r="I16">
         <v>2020</v>
       </c>
@@ -2659,17 +2675,24 @@
       <c r="L16">
         <v>2020</v>
       </c>
-      <c r="M16">
-        <v>0.106</v>
+      <c r="M16" s="69">
+        <f>J16</f>
+        <v>0.10625</v>
       </c>
       <c r="O16">
         <v>2020</v>
       </c>
+      <c r="P16">
+        <v>0.106</v>
+      </c>
       <c r="R16">
+        <v>2020</v>
+      </c>
+      <c r="U16">
         <v>0.106</v>
       </c>
     </row>
-    <row r="17" spans="9:18">
+    <row r="17" spans="9:21">
       <c r="I17">
         <v>2025</v>
       </c>
@@ -2679,25 +2702,32 @@
       <c r="L17">
         <v>2025</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="69">
+        <f t="shared" ref="M17:M22" si="2">J17</f>
         <v>0.39563999999999999</v>
       </c>
       <c r="O17">
         <v>2025</v>
       </c>
       <c r="P17">
+        <v>0.39563999999999999</v>
+      </c>
+      <c r="R17">
+        <v>2025</v>
+      </c>
+      <c r="S17">
         <v>71.03</v>
       </c>
-      <c r="Q17">
-        <f>P17*$L$4</f>
+      <c r="T17">
+        <f>S17*$L$4</f>
         <v>319.63499999999999</v>
       </c>
-      <c r="R17">
-        <f>Q17/1000</f>
+      <c r="U17">
+        <f>T17/1000</f>
         <v>0.319635</v>
       </c>
     </row>
-    <row r="18" spans="9:18">
+    <row r="18" spans="9:21">
       <c r="I18">
         <v>2030</v>
       </c>
@@ -2707,25 +2737,32 @@
       <c r="L18">
         <v>2030</v>
       </c>
-      <c r="M18">
-        <v>0.67049999999999998</v>
+      <c r="M18" s="69">
+        <f t="shared" si="2"/>
+        <v>0.51029999999999998</v>
       </c>
       <c r="O18">
         <v>2030</v>
       </c>
       <c r="P18">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="R18">
+        <v>2030</v>
+      </c>
+      <c r="S18">
         <v>149</v>
       </c>
-      <c r="Q18">
-        <f>P18*$L$4</f>
+      <c r="T18">
+        <f>S18*$L$4</f>
         <v>670.5</v>
       </c>
-      <c r="R18">
-        <f>Q18/1000</f>
+      <c r="U18">
+        <f>T18/1000</f>
         <v>0.67049999999999998</v>
       </c>
     </row>
-    <row r="19" spans="9:18">
+    <row r="19" spans="9:21">
       <c r="I19">
         <v>2035</v>
       </c>
@@ -2735,12 +2772,18 @@
       <c r="L19">
         <v>2035</v>
       </c>
-      <c r="M19">
-        <f>J19*1.24</f>
-        <v>0.71825759999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="9:18">
+      <c r="M19" s="69">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="O19">
+        <v>2035</v>
+      </c>
+      <c r="P19">
+        <f>M19*1.24</f>
+        <v>0.72651599999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="9:21">
       <c r="I20">
         <v>2040</v>
       </c>
@@ -2750,12 +2793,19 @@
       <c r="L20">
         <v>2040</v>
       </c>
-      <c r="M20">
-        <f t="shared" ref="M20:M22" si="2">J20*1.24</f>
+      <c r="M20" s="69">
+        <f t="shared" si="2"/>
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="O20">
+        <v>2040</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P22" si="3">M20*1.24</f>
         <v>0.82025999999999999</v>
       </c>
     </row>
-    <row r="21" spans="9:18">
+    <row r="21" spans="9:21">
       <c r="I21">
         <v>2045</v>
       </c>
@@ -2765,12 +2815,18 @@
       <c r="L21">
         <v>2045</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>0.86439779999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="9:18">
+      <c r="M21" s="69">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="O21">
+        <v>2045</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>0.87891200000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="9:21">
       <c r="I22">
         <v>2050</v>
       </c>
@@ -2780,39 +2836,26 @@
       <c r="L22">
         <v>2050</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="69">
         <f t="shared" si="2"/>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="O22">
+        <v>2050</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
         <v>0.93744000000000005</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3055,10 +3098,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3081,20 +3155,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821093F7-1B80-4443-BF72-70746182B571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271CD1F-F5F2-4714-A550-1565E459B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -816,6 +816,8 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -843,8 +845,6 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="5" xr:uid="{3F6BEF4B-9D7F-4FDE-A2A3-02FF5535AE14}"/>
@@ -1442,9 +1442,9 @@
       <c r="A6" s="24"/>
       <c r="B6" s="29"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="J6" s="35"/>
       <c r="K6" s="33"/>
       <c r="L6" s="24"/>
@@ -1465,9 +1465,9 @@
       <c r="A8" s="24"/>
       <c r="B8" s="29"/>
       <c r="C8" s="34"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="J8" s="35"/>
       <c r="K8" s="33"/>
       <c r="L8" s="24"/>
@@ -1516,15 +1516,15 @@
       <c r="A14" s="24"/>
       <c r="B14" s="29"/>
       <c r="C14" s="34"/>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
       <c r="J14" s="35"/>
       <c r="K14" s="33"/>
       <c r="L14" s="24"/>
@@ -1535,9 +1535,9 @@
       <c r="C15" s="34"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="J15" s="35"/>
       <c r="K15" s="33"/>
       <c r="L15" s="24"/>
@@ -1562,16 +1562,16 @@
       <c r="A18" s="24"/>
       <c r="B18" s="29"/>
       <c r="C18" s="34"/>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="63" t="s">
+      <c r="E18" s="61"/>
+      <c r="F18" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
       <c r="J18" s="35"/>
       <c r="K18" s="33"/>
       <c r="L18" s="24"/>
@@ -1582,10 +1582,10 @@
       <c r="C19" s="34"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
       <c r="J19" s="35"/>
       <c r="K19" s="33"/>
       <c r="L19" s="24"/>
@@ -1596,10 +1596,10 @@
       <c r="C20" s="34"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="35"/>
       <c r="K20" s="33"/>
       <c r="L20" s="24"/>
@@ -1619,10 +1619,10 @@
       <c r="A22" s="24"/>
       <c r="B22" s="29"/>
       <c r="C22" s="34"/>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="59"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="41">
         <v>45078</v>
       </c>
@@ -1700,10 +1700,10 @@
       <c r="A28" s="24"/>
       <c r="B28" s="29"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="59"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="25" t="s">
         <v>23</v>
       </c>
@@ -1742,10 +1742,10 @@
       <c r="A32" s="24"/>
       <c r="B32" s="29"/>
       <c r="C32" s="34"/>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="59"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
@@ -1916,11 +1916,11 @@
       <c r="A4" s="24"/>
       <c r="B4" s="29"/>
       <c r="C4" s="34"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="35"/>
       <c r="H4" s="33"/>
       <c r="I4" s="24"/>
@@ -1940,11 +1940,11 @@
       <c r="A6" s="24"/>
       <c r="B6" s="29"/>
       <c r="C6" s="34"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="35"/>
       <c r="H6" s="33"/>
       <c r="I6" s="24"/>
@@ -2340,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2655,7 +2655,7 @@
       </c>
     </row>
     <row r="15" spans="2:21">
-      <c r="J15" s="68" t="s">
+      <c r="J15" s="59" t="s">
         <v>33</v>
       </c>
       <c r="L15" s="58" t="s">
@@ -2675,7 +2675,7 @@
       <c r="L16">
         <v>2020</v>
       </c>
-      <c r="M16" s="69">
+      <c r="M16" s="60">
         <f>J16</f>
         <v>0.10625</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="L17">
         <v>2025</v>
       </c>
-      <c r="M17" s="69">
+      <c r="M17" s="60">
         <f t="shared" ref="M17:M22" si="2">J17</f>
         <v>0.39563999999999999</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="L18">
         <v>2030</v>
       </c>
-      <c r="M18" s="69">
+      <c r="M18" s="60">
         <f t="shared" si="2"/>
         <v>0.51029999999999998</v>
       </c>
@@ -2746,6 +2746,10 @@
       </c>
       <c r="P18">
         <v>0.67049999999999998</v>
+      </c>
+      <c r="Q18">
+        <f>(P18-M18)/M18</f>
+        <v>0.3139329805996473</v>
       </c>
       <c r="R18">
         <v>2030</v>
@@ -2772,15 +2776,19 @@
       <c r="L19">
         <v>2035</v>
       </c>
-      <c r="M19" s="69">
+      <c r="M19" s="60">
         <v>0.58589999999999998</v>
       </c>
       <c r="O19">
         <v>2035</v>
       </c>
       <c r="P19">
-        <f>M19*1.24</f>
-        <v>0.72651599999999994</v>
+        <f>M19*1.3</f>
+        <v>0.76166999999999996</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q22" si="3">(P19-M19)/M19</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20" spans="9:21">
@@ -2793,7 +2801,7 @@
       <c r="L20">
         <v>2040</v>
       </c>
-      <c r="M20" s="69">
+      <c r="M20" s="60">
         <f t="shared" si="2"/>
         <v>0.66149999999999998</v>
       </c>
@@ -2801,8 +2809,12 @@
         <v>2040</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:P22" si="3">M20*1.24</f>
-        <v>0.82025999999999999</v>
+        <f t="shared" ref="P20:P22" si="4">M20*1.3</f>
+        <v>0.85994999999999999</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="21" spans="9:21">
@@ -2815,15 +2827,19 @@
       <c r="L21">
         <v>2045</v>
       </c>
-      <c r="M21" s="69">
+      <c r="M21" s="60">
         <v>0.70879999999999999</v>
       </c>
       <c r="O21">
         <v>2045</v>
       </c>
       <c r="P21">
+        <f t="shared" si="4"/>
+        <v>0.92144000000000004</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="3"/>
-        <v>0.87891200000000003</v>
+        <v>0.3000000000000001</v>
       </c>
     </row>
     <row r="22" spans="9:21">
@@ -2836,7 +2852,7 @@
       <c r="L22">
         <v>2050</v>
       </c>
-      <c r="M22" s="69">
+      <c r="M22" s="60">
         <f t="shared" si="2"/>
         <v>0.75600000000000001</v>
       </c>
@@ -2844,8 +2860,12 @@
         <v>2050</v>
       </c>
       <c r="P22">
+        <f t="shared" si="4"/>
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="3"/>
-        <v>0.93744000000000005</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -2856,6 +2876,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3098,41 +3138,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3155,9 +3164,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7271CD1F-F5F2-4714-A550-1565E459B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75BD5C-EAC6-42E6-AB48-A0C49928C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,10 +209,10 @@
     <t>Bazowe</t>
   </si>
   <si>
-    <t>Wzrost (o ok. 25% od 2030r.)</t>
-  </si>
-  <si>
     <t>Nowe Bazowy</t>
+  </si>
+  <si>
+    <t>Wzrost (o ok. 30% od 2030r.)</t>
   </si>
 </sst>
 </file>
@@ -2340,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2514,7 +2514,7 @@
         <v>2030</v>
       </c>
       <c r="D9" s="13">
-        <v>0.51029999999999998</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.58589999999999998</v>
+        <v>0.76166999999999996</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -2542,7 +2542,7 @@
         <v>2040</v>
       </c>
       <c r="D11" s="13">
-        <v>0.66149999999999998</v>
+        <v>0.85994999999999999</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
@@ -2596,7 +2596,7 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.70879999999999999</v>
+        <v>0.92144000000000004</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -2610,7 +2610,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="13">
-        <v>0.75600000000000001</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
@@ -2659,10 +2659,10 @@
         <v>33</v>
       </c>
       <c r="L15" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="58" t="s">
         <v>35</v>
-      </c>
-      <c r="P15" s="58" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:21">
@@ -2682,7 +2682,7 @@
       <c r="O16">
         <v>2020</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="60">
         <v>0.106</v>
       </c>
       <c r="R16">
@@ -2709,7 +2709,7 @@
       <c r="O17">
         <v>2025</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="60">
         <v>0.39563999999999999</v>
       </c>
       <c r="R17">
@@ -2744,7 +2744,7 @@
       <c r="O18">
         <v>2030</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="60">
         <v>0.67049999999999998</v>
       </c>
       <c r="Q18">
@@ -2782,7 +2782,7 @@
       <c r="O19">
         <v>2035</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="60">
         <f>M19*1.3</f>
         <v>0.76166999999999996</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="O20">
         <v>2040</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="60">
         <f t="shared" ref="P20:P22" si="4">M20*1.3</f>
         <v>0.85994999999999999</v>
       </c>
@@ -2833,7 +2833,7 @@
       <c r="O21">
         <v>2045</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="60">
         <f t="shared" si="4"/>
         <v>0.92144000000000004</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="O22">
         <v>2050</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="60">
         <f t="shared" si="4"/>
         <v>0.98280000000000001</v>
       </c>
@@ -2876,26 +2876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3138,10 +3118,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3164,20 +3175,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C75BD5C-EAC6-42E6-AB48-A0C49928C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088AEB5-85C7-4B3A-9849-9FFA222EC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,7 +2341,7 @@
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2514,7 +2514,7 @@
         <v>2030</v>
       </c>
       <c r="D9" s="13">
-        <v>0.67049999999999998</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.76166999999999996</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -2542,7 +2542,7 @@
         <v>2040</v>
       </c>
       <c r="D11" s="13">
-        <v>0.85994999999999999</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
@@ -2596,7 +2596,7 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.92144000000000004</v>
+        <v>0.70879999999999999</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -2610,7 +2610,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="13">
-        <v>0.98280000000000001</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
@@ -2876,6 +2876,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3118,41 +3138,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3175,9 +3164,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088AEB5-85C7-4B3A-9849-9FFA222EC36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE44FAC-843F-4D6C-A3AB-90DFDCC6B2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,7 +2341,7 @@
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2514,7 +2514,7 @@
         <v>2030</v>
       </c>
       <c r="D9" s="13">
-        <v>0.51029999999999998</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.58589999999999998</v>
+        <v>0.76166999999999996</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -2542,7 +2542,7 @@
         <v>2040</v>
       </c>
       <c r="D11" s="13">
-        <v>0.66149999999999998</v>
+        <v>0.85994999999999999</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
@@ -2596,7 +2596,7 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.70879999999999999</v>
+        <v>0.92144000000000004</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -2610,7 +2610,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="13">
-        <v>0.75600000000000001</v>
+        <v>0.98280000000000001</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
@@ -2876,26 +2876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3138,10 +3118,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3164,20 +3175,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_PRICE_CO2.xlsx
+++ b/SuppXLS/Scen_PRICE_CO2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE44FAC-843F-4D6C-A3AB-90DFDCC6B2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263173F3-EE58-4975-951F-925E514107FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2341,7 +2341,7 @@
   <dimension ref="B1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="D9" sqref="D9:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2514,7 +2514,7 @@
         <v>2030</v>
       </c>
       <c r="D9" s="13">
-        <v>0.67049999999999998</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>2035</v>
       </c>
       <c r="D10" s="11">
-        <v>0.76166999999999996</v>
+        <v>0.58589999999999998</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>9</v>
@@ -2542,7 +2542,7 @@
         <v>2040</v>
       </c>
       <c r="D11" s="13">
-        <v>0.85994999999999999</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>9</v>
@@ -2596,7 +2596,7 @@
         <v>2045</v>
       </c>
       <c r="D12" s="11">
-        <v>0.92144000000000004</v>
+        <v>0.70879999999999999</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>9</v>
@@ -2610,7 +2610,7 @@
         <v>2050</v>
       </c>
       <c r="D13" s="13">
-        <v>0.98280000000000001</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>9</v>
@@ -2876,6 +2876,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -3118,41 +3138,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3175,9 +3164,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701208FD-3905-4372-97B8-23942D25C431}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97587157-7320-4A24-A6F7-427909F3962F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>